--- a/PLPTH813Bioinformatis/2023/PLPTH813_schedule2023.xlsx
+++ b/PLPTH813Bioinformatis/2023/PLPTH813_schedule2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu3zhen/Documents/GitHub/teaching/PLPTH813Bioinformatis/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EF98AD-53B9-7A4E-872B-D7614D7B1FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FDEB1E-D321-354D-BAA9-1E08C134F2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38600" windowHeight="26460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5680" yWindow="540" windowWidth="50980" windowHeight="26460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,39 +123,15 @@
     <t>Lab</t>
   </si>
   <si>
-    <t>RNA-Seq (DE)</t>
-  </si>
-  <si>
     <t>text editor and regular expression</t>
   </si>
   <si>
     <t>Genome assembly (overview)</t>
   </si>
   <si>
-    <t>Gene co-expression network</t>
-  </si>
-  <si>
     <t>Homework</t>
   </si>
   <si>
-    <t>HW02</t>
-  </si>
-  <si>
-    <t>HW01</t>
-  </si>
-  <si>
-    <t>HW03</t>
-  </si>
-  <si>
-    <t>HW04</t>
-  </si>
-  <si>
-    <t>HW05</t>
-  </si>
-  <si>
-    <t>HW08</t>
-  </si>
-  <si>
     <t>Text editor + Unix</t>
   </si>
   <si>
@@ -183,30 +159,18 @@
     <t>Phylogeny lab (Covid19)</t>
   </si>
   <si>
-    <t>short-read alignment (short and long reads)</t>
-  </si>
-  <si>
-    <t>HW07</t>
-  </si>
-  <si>
     <t>scRNA-seq</t>
   </si>
   <si>
     <t>QTL and GWAS lab</t>
   </si>
   <si>
-    <t>long read assembly and comparison</t>
-  </si>
-  <si>
     <t>Short and long read genome assembly</t>
   </si>
   <si>
     <t>scRNA-seq lab</t>
   </si>
   <si>
-    <t>HW09</t>
-  </si>
-  <si>
     <t>SNP discovery</t>
   </si>
   <si>
@@ -216,12 +180,6 @@
     <t>GWAS and genome prediction</t>
   </si>
   <si>
-    <t>RNA-Seq I</t>
-  </si>
-  <si>
-    <t>RNA-Seq II</t>
-  </si>
-  <si>
     <t>final week (May 5-12)</t>
   </si>
   <si>
@@ -237,9 +195,6 @@
     <t>Population genetics</t>
   </si>
   <si>
-    <t>HW10</t>
-  </si>
-  <si>
     <t>scRNA-seq application (invited lecture)</t>
   </si>
   <si>
@@ -249,16 +204,61 @@
     <t>Project presentation (3-4 talks)</t>
   </si>
   <si>
-    <t>HW06 (practice)</t>
-  </si>
-  <si>
-    <t>HW11</t>
-  </si>
-  <si>
     <t>HW12 (practice)</t>
   </si>
   <si>
     <t>Deep learning in genomics (invited lecture)</t>
+  </si>
+  <si>
+    <t>HW01 (regular expression)</t>
+  </si>
+  <si>
+    <t>HW02 (Unix)</t>
+  </si>
+  <si>
+    <t>HW03 (R)</t>
+  </si>
+  <si>
+    <t>HW04 (SNP)</t>
+  </si>
+  <si>
+    <t>HW05 (tree)</t>
+  </si>
+  <si>
+    <t>HW06 (QTL_GWAS: practice)</t>
+  </si>
+  <si>
+    <t>HW07 (genome assembly)</t>
+  </si>
+  <si>
+    <t>HW09 (RNA-seq)</t>
+  </si>
+  <si>
+    <t>HW10 (DE analysis)</t>
+  </si>
+  <si>
+    <t>HW11 (scRNA-seq)</t>
+  </si>
+  <si>
+    <t>HW08 (bedtools)</t>
+  </si>
+  <si>
+    <t>Bedtools and software installation</t>
+  </si>
+  <si>
+    <t>Brief Project presentation</t>
+  </si>
+  <si>
+    <t>NGS alignment (short and long reads)</t>
+  </si>
+  <si>
+    <t>RNA-seq I</t>
+  </si>
+  <si>
+    <t>RNA-seq (DE)</t>
+  </si>
+  <si>
+    <t>RNA-seq II (DE, GCN, GO enrichment)</t>
   </si>
 </sst>
 </file>
@@ -298,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +308,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,9 +412,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -445,6 +450,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -848,571 +871,564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="163" zoomScaleNormal="163" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="56.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="52" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>44578</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="4">
         <f>B2+2</f>
         <v>44580</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f t="shared" ref="B4:B30" si="0">B2+7</f>
         <v>44585</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>44587</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>44592</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>44594</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>44599</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>44601</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>44606</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>44608</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>44613</v>
+      </c>
+      <c r="C12" s="5">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>44615</v>
+      </c>
+      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>44620</v>
+      </c>
+      <c r="C14" s="5">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="9">
+        <f t="shared" si="0"/>
+        <v>44622</v>
+      </c>
+      <c r="C15" s="10">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="5">
-        <f t="shared" si="0"/>
-        <v>44587</v>
-      </c>
-      <c r="C5" s="6">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="9">
+        <f t="shared" si="0"/>
+        <v>44627</v>
+      </c>
+      <c r="C16" s="10">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="21">
+        <f t="shared" si="0"/>
+        <v>44629</v>
+      </c>
+      <c r="C17" s="22">
+        <v>16</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44641</v>
+      </c>
+      <c r="C19" s="5">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="4">
+        <v>44643</v>
+      </c>
+      <c r="C20" s="5">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>44648</v>
+      </c>
+      <c r="C21" s="5">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>44650</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="18">
+        <f t="shared" si="0"/>
+        <v>44655</v>
+      </c>
+      <c r="C23" s="19">
+        <v>23</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>44657</v>
+      </c>
+      <c r="C24" s="5">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>44662</v>
+      </c>
+      <c r="C25" s="5">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>44664</v>
+      </c>
+      <c r="C26" s="5">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
+        <v>44669</v>
+      </c>
+      <c r="C27" s="5">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <f t="shared" si="0"/>
-        <v>44592</v>
-      </c>
-      <c r="C6" s="6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <f t="shared" si="0"/>
-        <v>44594</v>
-      </c>
-      <c r="C7" s="6">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5">
-        <f t="shared" si="0"/>
-        <v>44599</v>
-      </c>
-      <c r="C8" s="6">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <f t="shared" si="0"/>
-        <v>44601</v>
-      </c>
-      <c r="C9" s="6">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="C28" s="5">
+        <v>28</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5">
-        <f t="shared" si="0"/>
-        <v>44606</v>
-      </c>
-      <c r="C10" s="6">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <f t="shared" si="0"/>
-        <v>44608</v>
-      </c>
-      <c r="C11" s="6">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="5">
-        <f t="shared" si="0"/>
-        <v>44613</v>
-      </c>
-      <c r="C12" s="6">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="5">
-        <f t="shared" si="0"/>
-        <v>44615</v>
-      </c>
-      <c r="C13" s="6">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>44676</v>
+      </c>
+      <c r="C29" s="5">
+        <v>29</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>44678</v>
+      </c>
+      <c r="C30" s="5">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5">
-        <f t="shared" si="0"/>
-        <v>44620</v>
-      </c>
-      <c r="C14" s="6">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="10">
-        <f t="shared" si="0"/>
-        <v>44622</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="E30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="10">
-        <f t="shared" si="0"/>
-        <v>44627</v>
-      </c>
-      <c r="C16" s="11">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="10">
-        <f t="shared" si="0"/>
-        <v>44629</v>
-      </c>
-      <c r="C17" s="11">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="5">
-        <v>44641</v>
-      </c>
-      <c r="C19" s="6">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="5">
-        <v>44643</v>
-      </c>
-      <c r="C20" s="6">
-        <v>22</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="5">
-        <f t="shared" si="0"/>
-        <v>44648</v>
-      </c>
-      <c r="C21" s="6">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="5">
-        <f t="shared" si="0"/>
-        <v>44650</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="5">
-        <f t="shared" si="0"/>
-        <v>44655</v>
-      </c>
-      <c r="C23" s="6">
-        <v>23</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="5">
-        <f t="shared" si="0"/>
-        <v>44657</v>
-      </c>
-      <c r="C24" s="6">
-        <v>24</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="5">
-        <f t="shared" si="0"/>
-        <v>44662</v>
-      </c>
-      <c r="C25" s="6">
-        <v>25</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="5">
-        <f t="shared" si="0"/>
-        <v>44664</v>
-      </c>
-      <c r="C26" s="6">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="5">
-        <f t="shared" si="0"/>
-        <v>44669</v>
-      </c>
-      <c r="C27" s="6">
-        <v>27</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="5">
-        <f t="shared" si="0"/>
-        <v>44671</v>
-      </c>
-      <c r="C28" s="6">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="5">
-        <f t="shared" si="0"/>
-        <v>44676</v>
-      </c>
-      <c r="C29" s="6">
-        <v>29</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="5">
-        <f t="shared" si="0"/>
-        <v>44678</v>
-      </c>
-      <c r="C30" s="6">
-        <v>30</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="10">
+      <c r="B31" s="21">
         <f>B29+7</f>
         <v>44683</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="22">
         <v>31</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="10">
+      <c r="D31" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21">
         <f>B30+7</f>
         <v>44685</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="22">
         <v>31</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="13"/>
+      <c r="D32" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
